--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_8.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_8.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.971178426201139</v>
+        <v>0.9191624040989999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7062378967030973</v>
+        <v>0.6857662793686032</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6998694511741667</v>
+        <v>0.658955148786329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9535233813808309</v>
+        <v>0.9561746171732116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1209579796497061</v>
+        <v>0.3392580970131051</v>
       </c>
       <c r="G2" t="n">
-        <v>1.964388537396498</v>
+        <v>2.101282336775389</v>
       </c>
       <c r="H2" t="n">
-        <v>1.073549570580896</v>
+        <v>1.219897657874632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08489106983451997</v>
+        <v>0.2097686049173794</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3188980438743139</v>
+        <v>1.41908867785821</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3477901373669273</v>
+        <v>0.5824586654974798</v>
       </c>
       <c r="L2" t="n">
-        <v>1.016871165150553</v>
+        <v>0.7228425283394281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3625962835394719</v>
+        <v>0.6072551367433636</v>
       </c>
       <c r="N2" t="n">
-        <v>134.2246241386436</v>
+        <v>36.16198822631778</v>
       </c>
       <c r="O2" t="n">
-        <v>213.4515527550766</v>
+        <v>56.88287724907719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9708622639178125</v>
+        <v>0.9193546939687002</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7056834769252524</v>
+        <v>0.6856066943275108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.699626154505266</v>
+        <v>0.6589882271749228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9556433889067818</v>
+        <v>0.9557897243449208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1222848451185909</v>
+        <v>0.3384510975651094</v>
       </c>
       <c r="G3" t="n">
-        <v>1.968095945003815</v>
+        <v>2.102349482679996</v>
       </c>
       <c r="H3" t="n">
-        <v>1.074419828658402</v>
+        <v>1.219779338396627</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08101880648399773</v>
+        <v>0.2116108804760977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3223351825902562</v>
+        <v>1.421993360919362</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3496925008040506</v>
+        <v>0.5817655004940646</v>
       </c>
       <c r="L3" t="n">
-        <v>1.017056235755427</v>
+        <v>0.7235018078926863</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3645796345265487</v>
+        <v>0.6065324622707036</v>
       </c>
       <c r="N3" t="n">
-        <v>134.2028043191921</v>
+        <v>36.16675133023244</v>
       </c>
       <c r="O3" t="n">
-        <v>213.4297329356251</v>
+        <v>56.88764035299184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.970527548935473</v>
+        <v>0.9195391914331202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7051180385009203</v>
+        <v>0.6854537788308112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6993559817663337</v>
+        <v>0.6590152737198485</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9576653996039204</v>
+        <v>0.9553937314386196</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1236895722963921</v>
+        <v>0.3376768011751036</v>
       </c>
       <c r="G4" t="n">
-        <v>1.971877034350928</v>
+        <v>2.103372029310538</v>
       </c>
       <c r="H4" t="n">
-        <v>1.075386220880047</v>
+        <v>1.219682594473677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07732553755874629</v>
+        <v>0.2135062861555024</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3258121777371042</v>
+        <v>1.424839207187315</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3516952833013148</v>
+        <v>0.5810996482317844</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017252166476796</v>
+        <v>0.7241343706278409</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3666676796210528</v>
+        <v>0.6058382632991139</v>
       </c>
       <c r="N4" t="n">
-        <v>134.179960602937</v>
+        <v>36.17133210100043</v>
       </c>
       <c r="O4" t="n">
-        <v>213.4068892193701</v>
+        <v>56.89222112375984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9701739747851712</v>
+        <v>0.9197162737072772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.704540891254929</v>
+        <v>0.6852945473118701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6990580381655115</v>
+        <v>0.6590368549920569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.959588582254268</v>
+        <v>0.9549871332548099</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1251734473677308</v>
+        <v>0.3369336247523557</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97573642064239</v>
+        <v>2.104436811210891</v>
       </c>
       <c r="H5" t="n">
-        <v>1.076451947864426</v>
+        <v>1.219605399514342</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07381278130569445</v>
+        <v>0.215452453610943</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3293417851309258</v>
+        <v>1.427629827293192</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3537985971816887</v>
+        <v>0.5804598390520707</v>
       </c>
       <c r="L5" t="n">
-        <v>1.017459136711119</v>
+        <v>0.7247415098535217</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3688605359277742</v>
+        <v>0.6051712161180322</v>
       </c>
       <c r="N5" t="n">
-        <v>134.1561098490721</v>
+        <v>36.17573865444121</v>
       </c>
       <c r="O5" t="n">
-        <v>213.3830384655051</v>
+        <v>56.89662767720062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9698011735715878</v>
+        <v>0.9198861243067291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7039513874329987</v>
+        <v>0.6851379791231682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6987319915510646</v>
+        <v>0.659052770385433</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9614114620140848</v>
+        <v>0.9545702295349607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1267380143105598</v>
+        <v>0.3362207981213267</v>
       </c>
       <c r="G6" t="n">
-        <v>1.979678435414054</v>
+        <v>2.10548378340967</v>
       </c>
       <c r="H6" t="n">
-        <v>1.077618197699034</v>
+        <v>1.219548471075063</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07048323157535503</v>
+        <v>0.2174479481407517</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3329173802133971</v>
+        <v>1.430366212699171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3560028290766238</v>
+        <v>0.5798454950427111</v>
       </c>
       <c r="L6" t="n">
-        <v>1.017677361811753</v>
+        <v>0.7253238547659284</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3711586065378658</v>
+        <v>0.6045307182123267</v>
       </c>
       <c r="N6" t="n">
-        <v>134.1312664052689</v>
+        <v>36.17997439514646</v>
       </c>
       <c r="O6" t="n">
-        <v>213.358195021702</v>
+        <v>56.90086341790587</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9694088586570421</v>
+        <v>0.9200486798275614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7033489349850521</v>
+        <v>0.6849743175465733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6983772694760133</v>
+        <v>0.659063451491018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9631336240453831</v>
+        <v>0.9541432651320245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1283844760819074</v>
+        <v>0.3355385873746823</v>
       </c>
       <c r="G7" t="n">
-        <v>1.983707037707511</v>
+        <v>2.106578189125952</v>
       </c>
       <c r="H7" t="n">
-        <v>1.078887017993524</v>
+        <v>1.219510265379711</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06733764608293272</v>
+        <v>0.2194915977651549</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3365423182976588</v>
+        <v>1.433050406290254</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3583077951732384</v>
+        <v>0.5792569269112647</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01790700956661</v>
+        <v>0.7258811879802107</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3735616998131508</v>
+        <v>0.6039170935170208</v>
       </c>
       <c r="N7" t="n">
-        <v>134.105451595649</v>
+        <v>36.18403662930892</v>
       </c>
       <c r="O7" t="n">
-        <v>213.332380212082</v>
+        <v>56.90492565206833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9689968232660562</v>
+        <v>0.9202043966041586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7027328158158321</v>
+        <v>0.6847194236505161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6979932094818124</v>
+        <v>0.6590689138330768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9647533383219633</v>
+        <v>0.9537068185196258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1301137004742201</v>
+        <v>0.3348850773746314</v>
       </c>
       <c r="G8" t="n">
-        <v>1.987827029429053</v>
+        <v>2.108282665782565</v>
       </c>
       <c r="H8" t="n">
-        <v>1.080260778323703</v>
+        <v>1.219490726898892</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06437918477808144</v>
+        <v>0.2215806336411366</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3402184302620032</v>
+        <v>1.435680897134658</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3607127672736579</v>
+        <v>0.5786925585962129</v>
       </c>
       <c r="L8" t="n">
-        <v>1.018148201014992</v>
+        <v>0.726415074071401</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3760690565548637</v>
+        <v>0.6033286988743938</v>
       </c>
       <c r="N8" t="n">
-        <v>134.0786931835009</v>
+        <v>36.18793571725224</v>
       </c>
       <c r="O8" t="n">
-        <v>213.3056217999339</v>
+        <v>56.90882474001165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9685646233087698</v>
+        <v>0.920353120039978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7021024856463309</v>
+        <v>0.684537659950143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6975793951870164</v>
+        <v>0.6590692954905732</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9662692012081584</v>
+        <v>0.9532609792647502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1319275512376405</v>
+        <v>0.3342609169297917</v>
       </c>
       <c r="G9" t="n">
-        <v>1.992042050174911</v>
+        <v>2.109498120483905</v>
       </c>
       <c r="H9" t="n">
-        <v>1.081740968061857</v>
+        <v>1.219489361732156</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06161041144743162</v>
+        <v>0.2237146270595698</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3439509038607468</v>
+        <v>1.438257353222986</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3632183244794244</v>
+        <v>0.5781530220709667</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01840119611194</v>
+        <v>0.7269249829942104</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3786812805180982</v>
+        <v>0.6027661931622732</v>
       </c>
       <c r="N9" t="n">
-        <v>134.0510047226634</v>
+        <v>36.19166680512348</v>
       </c>
       <c r="O9" t="n">
-        <v>213.2779333390964</v>
+        <v>56.91255582788289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_1</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9681118443621852</v>
+        <v>0.9206309187330929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7014571663807119</v>
+        <v>0.6842002705924636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6971350748974218</v>
+        <v>0.6590556720792886</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9676794256267551</v>
+        <v>0.9523429258757193</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1338277676168361</v>
+        <v>0.3330950552421894</v>
       </c>
       <c r="G10" t="n">
-        <v>1.996357303075527</v>
+        <v>2.111754244672243</v>
       </c>
       <c r="H10" t="n">
-        <v>1.083330275974566</v>
+        <v>1.219538091884391</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05903459024618635</v>
+        <v>0.2281088562992274</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3477390261316448</v>
+        <v>1.44326393404947</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3658247772046559</v>
+        <v>0.5771438774189581</v>
       </c>
       <c r="L10" t="n">
-        <v>1.018666237446526</v>
+        <v>0.7278774356563185</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3813986953319437</v>
+        <v>0.6017140871332112</v>
       </c>
       <c r="N10" t="n">
-        <v>134.0224032441019</v>
+        <v>36.19865475711477</v>
       </c>
       <c r="O10" t="n">
-        <v>213.249331860535</v>
+        <v>56.91954377987418</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_0</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9676380195379682</v>
+        <v>0.9207601767695476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7007962132048822</v>
+        <v>0.684024955494593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6966603376281075</v>
+        <v>0.659042233506425</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9689817363207658</v>
+        <v>0.9518711685745607</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1358163090422678</v>
+        <v>0.3325525869143956</v>
       </c>
       <c r="G11" t="n">
-        <v>2.000777100005711</v>
+        <v>2.112926577538955</v>
       </c>
       <c r="H11" t="n">
-        <v>1.085028383660055</v>
+        <v>1.219586160880311</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05665587700593574</v>
+        <v>0.2303669055058884</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3515829684217699</v>
+        <v>1.445697994180484</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3685326431162751</v>
+        <v>0.5766737265684952</v>
       </c>
       <c r="L11" t="n">
-        <v>1.018943598319238</v>
+        <v>0.7283206060670202</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3842218407014757</v>
+        <v>0.6012239209876976</v>
       </c>
       <c r="N11" t="n">
-        <v>133.9929039500565</v>
+        <v>36.20191455051614</v>
       </c>
       <c r="O11" t="n">
-        <v>213.2198325664895</v>
+        <v>56.92280357327555</v>
       </c>
     </row>
   </sheetData>
